--- a/data/marburg/fixed/marburg_fixing.xlsx
+++ b/data/marburg/fixed/marburg_fixing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gc4018\Documents\code\priority-pathogens\data\marburg\fixing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/kem22_ic_ac_uk/Documents/Projects/Priority Pathogens/priority-pathogens/data/marburg/fixed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2C0215-8C5E-43C2-A789-CC83B05F0BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{1F2C0215-8C5E-43C2-A789-CC83B05F0BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F95D902-850E-43D0-93C2-A3E2508AB91E}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{ABF3DFDB-71ED-41C9-97C7-A2F6B992A437}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABF3DFDB-71ED-41C9-97C7-A2F6B992A437}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="569">
   <si>
     <t>fixed</t>
   </si>
@@ -1764,13 +1764,25 @@
     <t/>
   </si>
   <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
-    <t>June</t>
+    <t>Jan 01</t>
+  </si>
+  <si>
+    <t>Nov 11</t>
+  </si>
+  <si>
+    <t>Mar 03</t>
+  </si>
+  <si>
+    <t>Sep 09</t>
+  </si>
+  <si>
+    <t>Jul 07</t>
+  </si>
+  <si>
+    <t>Jun 06</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1959,24 +1971,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2311,19 +2310,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4796A1-9A3D-4303-832B-A1FBABA24A2A}">
-  <dimension ref="A1:BE21"/>
+  <dimension ref="A1:BE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="AH17" workbookViewId="0">
+      <selection activeCell="AX24" sqref="AX24:AX42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2490,7 +2489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2796,8 +2795,8 @@
       <c r="AT3" t="s">
         <v>58</v>
       </c>
-      <c r="AU3" s="2">
-        <v>40848</v>
+      <c r="AU3" s="25" t="s">
+        <v>564</v>
       </c>
       <c r="AV3">
         <v>1981</v>
@@ -2805,8 +2804,8 @@
       <c r="AW3" t="s">
         <v>58</v>
       </c>
-      <c r="AX3" s="2">
-        <v>36892</v>
+      <c r="AX3" s="25" t="s">
+        <v>563</v>
       </c>
       <c r="AY3">
         <v>1982</v>
@@ -2824,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -2963,7 +2962,7 @@
       <c r="AT4" t="s">
         <v>58</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AV4" t="s">
@@ -2972,7 +2971,7 @@
       <c r="AW4" t="s">
         <v>58</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX4" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AY4" t="s">
@@ -2991,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -3130,7 +3129,7 @@
       <c r="AT5" t="s">
         <v>58</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU5" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AV5">
@@ -3139,7 +3138,7 @@
       <c r="AW5" t="s">
         <v>58</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AY5">
@@ -3158,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -3297,7 +3296,7 @@
       <c r="AT6" t="s">
         <v>58</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AU6" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AV6">
@@ -3306,7 +3305,7 @@
       <c r="AW6" t="s">
         <v>58</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AX6" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AY6">
@@ -3325,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -3464,7 +3463,7 @@
       <c r="AT7" t="s">
         <v>58</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AU7" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AV7">
@@ -3473,7 +3472,7 @@
       <c r="AW7" t="s">
         <v>58</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AX7" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AY7">
@@ -3492,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -3631,7 +3630,7 @@
       <c r="AT8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AU8" s="20" t="s">
+      <c r="AU8" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AV8" s="20" t="s">
@@ -3640,7 +3639,7 @@
       <c r="AW8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AX8" s="20" t="s">
+      <c r="AX8" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AY8" s="20" t="s">
@@ -3661,7 +3660,7 @@
       <c r="BD8" s="20"/>
       <c r="BE8" s="20"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -3800,7 +3799,7 @@
       <c r="AT9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AU9" s="20" t="s">
+      <c r="AU9" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AV9" s="20" t="s">
@@ -3809,7 +3808,7 @@
       <c r="AW9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AX9" s="20" t="s">
+      <c r="AX9" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AY9" s="20" t="s">
@@ -3830,7 +3829,7 @@
       <c r="BD9" s="20"/>
       <c r="BE9" s="20"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -3969,7 +3968,7 @@
       <c r="AT10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AU10" s="20" t="s">
+      <c r="AU10" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AV10" s="20" t="s">
@@ -3978,7 +3977,7 @@
       <c r="AW10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AX10" s="20" t="s">
+      <c r="AX10" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AY10" s="20" t="s">
@@ -3999,7 +3998,7 @@
       <c r="BD10" s="20"/>
       <c r="BE10" s="20"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -4138,7 +4137,7 @@
       <c r="AT11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AU11" s="20" t="s">
+      <c r="AU11" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AV11" s="20" t="s">
@@ -4147,7 +4146,7 @@
       <c r="AW11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AX11" s="20" t="s">
+      <c r="AX11" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AY11" s="20" t="s">
@@ -4168,7 +4167,7 @@
       <c r="BD11" s="20"/>
       <c r="BE11" s="20"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -4307,7 +4306,7 @@
       <c r="AT12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AU12" s="20" t="s">
+      <c r="AU12" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AV12" s="20" t="s">
@@ -4316,7 +4315,7 @@
       <c r="AW12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AX12" s="20" t="s">
+      <c r="AX12" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AY12" s="20" t="s">
@@ -4337,7 +4336,7 @@
       <c r="BD12" s="20"/>
       <c r="BE12" s="20"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -4476,7 +4475,7 @@
       <c r="AT13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AU13" s="20" t="s">
+      <c r="AU13" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AV13" s="20" t="s">
@@ -4485,7 +4484,7 @@
       <c r="AW13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AX13" s="20" t="s">
+      <c r="AX13" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AY13" s="20" t="s">
@@ -4506,174 +4505,174 @@
       <c r="BD13" s="20"/>
       <c r="BE13" s="20"/>
     </row>
-    <row r="14" spans="1:57" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="31">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
         <v>1927</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14">
         <v>87</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14">
         <v>56</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14">
         <v>10.7</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="31">
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14">
         <v>71</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14">
         <v>675</v>
       </c>
-      <c r="S14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="T14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="U14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE14" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA14" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="31" t="s">
+      <c r="S14" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="s">
         <v>70</v>
       </c>
-      <c r="BC14" s="31">
+      <c r="BC14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" t="b">
         <v>1</v>
       </c>
@@ -4812,7 +4811,7 @@
       <c r="AT15" t="s">
         <v>58</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AU15" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AV15" t="s">
@@ -4821,7 +4820,7 @@
       <c r="AW15" t="s">
         <v>58</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AX15" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AY15" t="s">
@@ -4840,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -4979,7 +4978,7 @@
       <c r="AT16" t="s">
         <v>58</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AU16" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AV16" t="s">
@@ -4988,7 +4987,7 @@
       <c r="AW16" t="s">
         <v>58</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AX16" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AY16" t="s">
@@ -5007,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" t="b">
         <v>1</v>
       </c>
@@ -5146,7 +5145,7 @@
       <c r="AT17" t="s">
         <v>58</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AU17" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AV17" t="s">
@@ -5155,7 +5154,7 @@
       <c r="AW17" t="s">
         <v>58</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AX17" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AY17" t="s">
@@ -5174,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" t="b">
         <v>1</v>
       </c>
@@ -5313,8 +5312,8 @@
       <c r="AT18" t="s">
         <v>58</v>
       </c>
-      <c r="AU18" s="2">
-        <v>37681</v>
+      <c r="AU18" s="25" t="s">
+        <v>565</v>
       </c>
       <c r="AV18">
         <v>2011</v>
@@ -5322,8 +5321,8 @@
       <c r="AW18" t="s">
         <v>58</v>
       </c>
-      <c r="AX18" s="2">
-        <v>39264</v>
+      <c r="AX18" s="25" t="s">
+        <v>567</v>
       </c>
       <c r="AY18">
         <v>2011</v>
@@ -5341,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" t="b">
         <v>1</v>
       </c>
@@ -5480,8 +5479,8 @@
       <c r="AT19">
         <v>3</v>
       </c>
-      <c r="AU19" s="2">
-        <v>40057</v>
+      <c r="AU19" s="25" t="s">
+        <v>566</v>
       </c>
       <c r="AV19">
         <v>2012</v>
@@ -5489,8 +5488,8 @@
       <c r="AW19">
         <v>13</v>
       </c>
-      <c r="AX19" s="2">
-        <v>40848</v>
+      <c r="AX19" s="25" t="s">
+        <v>564</v>
       </c>
       <c r="AY19">
         <v>2012</v>
@@ -5508,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" t="b">
         <v>1</v>
       </c>
@@ -5647,7 +5646,7 @@
       <c r="AT20" t="s">
         <v>58</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AU20" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AV20" t="s">
@@ -5656,7 +5655,7 @@
       <c r="AW20" t="s">
         <v>58</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AX20" s="25" t="s">
         <v>58</v>
       </c>
       <c r="AY20" t="s">
@@ -5675,14 +5674,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:55" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="b">
+    <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21">
         <v>1693</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="23">
@@ -5691,19 +5690,19 @@
       <c r="E21" s="23">
         <v>9</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="24" t="s">
         <v>561</v>
       </c>
       <c r="Q21" s="23">
@@ -5712,19 +5711,19 @@
       <c r="R21" s="23">
         <v>331</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="T21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="V21" s="25" t="s">
+      <c r="V21" s="24" t="s">
         <v>561</v>
       </c>
       <c r="W21" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="Y21" s="25" t="s">
+      <c r="Y21" s="24" t="s">
         <v>561</v>
       </c>
       <c r="Z21" s="23" t="b">
@@ -5733,13 +5732,13 @@
       <c r="AA21" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="AB21" s="25" t="s">
+      <c r="AB21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="AC21" s="25" t="s">
+      <c r="AC21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="AD21" s="25" t="s">
+      <c r="AD21" s="24" t="s">
         <v>561</v>
       </c>
       <c r="AE21" s="23" t="b">
@@ -5748,61 +5747,102 @@
       <c r="AF21" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="AG21" s="25" t="s">
+      <c r="AG21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="AH21" s="25" t="s">
+      <c r="AH21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="AI21" s="25" t="s">
+      <c r="AI21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="AJ21" s="25" t="s">
+      <c r="AJ21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="AK21" s="25" t="s">
+      <c r="AK21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="AL21" s="25" t="s">
+      <c r="AL21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="AM21" s="25" t="s">
+      <c r="AM21" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AN21" s="25"/>
-      <c r="AR21" s="25" t="s">
+      <c r="AN21" s="24"/>
+      <c r="AR21" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="AS21" s="25" t="s">
+      <c r="AS21" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="AT21" s="25" t="s">
+      <c r="AT21" s="24" t="s">
         <v>561</v>
       </c>
       <c r="AU21" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="AV21" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="AV21" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="AW21" s="25" t="s">
+      <c r="AW21" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="AX21" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="AY21" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="AZ21" s="25" t="s">
+      <c r="AX21" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="AY21" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="AZ21" s="24" t="s">
         <v>561</v>
       </c>
       <c r="BA21" s="23" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AU24" s="2"/>
+      <c r="AX24" s="2"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AU29" s="20"/>
+      <c r="AX29" s="20"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AU30" s="20"/>
+      <c r="AX30" s="20"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AU31" s="20"/>
+      <c r="AX31" s="20"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AU32" s="20"/>
+      <c r="AX32" s="20"/>
+    </row>
+    <row r="33" spans="47:50" x14ac:dyDescent="0.3">
+      <c r="AU33" s="20"/>
+      <c r="AX33" s="20"/>
+    </row>
+    <row r="34" spans="47:50" x14ac:dyDescent="0.3">
+      <c r="AU34" s="20"/>
+      <c r="AX34" s="20"/>
+    </row>
+    <row r="39" spans="47:50" x14ac:dyDescent="0.3">
+      <c r="AU39" s="2"/>
+      <c r="AX39" s="2"/>
+    </row>
+    <row r="40" spans="47:50" x14ac:dyDescent="0.3">
+      <c r="AU40" s="2"/>
+      <c r="AX40" s="2"/>
+    </row>
+    <row r="42" spans="47:50" x14ac:dyDescent="0.3">
+      <c r="AU42" s="2"/>
+      <c r="AX42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5814,12 +5854,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5890,7 +5930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -5961,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -6032,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -6103,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -6119,48 +6159,44 @@
       <c r="E5" s="23">
         <v>62</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="24">
         <v>2004</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="24">
         <v>2005</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="23">
         <v>252</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="T5" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="29">
+      <c r="T5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="23">
         <v>227</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -6176,41 +6212,37 @@
       <c r="E6" s="23">
         <v>31</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="24">
         <v>1998</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="24">
         <v>2000</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="23">
         <v>154</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="R6" s="28"/>
-      <c r="S6" s="27" t="s">
+      <c r="S6" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="T6" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="29">
+      <c r="T6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="23">
         <v>128</v>
       </c>
       <c r="W6">
@@ -6230,14 +6262,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="132.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="108.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="132.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="108.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -6293,7 +6325,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>162</v>
       </c>
@@ -6340,7 +6372,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>162</v>
       </c>
@@ -6387,7 +6419,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>180</v>
       </c>
@@ -6434,7 +6466,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>180</v>
       </c>
@@ -6487,7 +6519,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>200</v>
       </c>
@@ -6534,7 +6566,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>200</v>
       </c>
@@ -6587,7 +6619,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>219</v>
       </c>
@@ -6631,7 +6663,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>219</v>
       </c>
@@ -6681,7 +6713,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>99</v>
       </c>
@@ -6728,7 +6760,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>99</v>
       </c>
@@ -6778,7 +6810,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>100</v>
       </c>
@@ -6831,7 +6863,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>100</v>
       </c>
@@ -6881,7 +6913,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>274</v>
       </c>
@@ -6934,7 +6966,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>274</v>
       </c>
@@ -6981,7 +7013,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>162</v>
       </c>
@@ -7028,7 +7060,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>162</v>
       </c>
@@ -7075,7 +7107,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>162</v>
       </c>
@@ -7119,7 +7151,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>200</v>
       </c>
@@ -7166,7 +7198,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>162</v>
       </c>
@@ -7219,7 +7251,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -7266,7 +7298,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>171</v>
       </c>
@@ -7313,7 +7345,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>171</v>
       </c>
@@ -7360,7 +7392,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>113</v>
       </c>
@@ -7407,7 +7439,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>180</v>
       </c>
@@ -7460,7 +7492,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>180</v>
       </c>
@@ -7510,7 +7542,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>180</v>
       </c>
@@ -7560,7 +7592,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>189</v>
       </c>
@@ -7610,7 +7642,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>189</v>
       </c>
@@ -7660,7 +7692,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>189</v>
       </c>
@@ -7707,7 +7739,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>200</v>
       </c>
@@ -7757,7 +7789,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>200</v>
       </c>
@@ -7807,7 +7839,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>200</v>
       </c>
@@ -7860,7 +7892,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>265</v>
       </c>
@@ -7913,7 +7945,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>274</v>
       </c>
@@ -7960,7 +7992,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>162</v>
       </c>
@@ -8007,7 +8039,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>219</v>
       </c>
@@ -8060,7 +8092,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>219</v>
       </c>
@@ -8113,7 +8145,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>219</v>
       </c>
@@ -8160,7 +8192,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>99</v>
       </c>
@@ -8210,7 +8242,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>99</v>
       </c>
@@ -8260,7 +8292,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>162</v>
       </c>
@@ -8313,7 +8345,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>100</v>
       </c>
@@ -8366,7 +8398,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>100</v>
       </c>
@@ -8419,7 +8451,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>100</v>
       </c>
@@ -8469,7 +8501,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>265</v>
       </c>
@@ -8519,7 +8551,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>265</v>
       </c>
@@ -8569,7 +8601,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>274</v>
       </c>
@@ -8619,7 +8651,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>274</v>
       </c>

--- a/data/marburg/fixed/marburg_fixing.xlsx
+++ b/data/marburg/fixed/marburg_fixing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/kem22_ic_ac_uk/Documents/Projects/Priority Pathogens/priority-pathogens/data/marburg/fixed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gc4018\Documents\code\priority-pathogens\data\marburg\fixed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{1F2C0215-8C5E-43C2-A789-CC83B05F0BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F95D902-850E-43D0-93C2-A3E2508AB91E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B669476-BC3A-41FD-A1C8-083780ECC40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABF3DFDB-71ED-41C9-97C7-A2F6B992A437}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABF3DFDB-71ED-41C9-97C7-A2F6B992A437}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -307,9 +307,6 @@
     <t>Benue; Gongola; Ondo; Makurdi; Plateau</t>
   </si>
   <si>
-    <t>Mutations â€“ mutation rate</t>
-  </si>
-  <si>
     <t>Standard Error (SE)</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
   </si>
   <si>
     <t>VP24</t>
-  </si>
-  <si>
-    <t>Mutations â€“ substitution rate</t>
   </si>
   <si>
     <t>VP35</t>
@@ -1783,6 +1777,12 @@
   </si>
   <si>
     <t>Jun 06</t>
+  </si>
+  <si>
+    <t>Mutations - mutation rate</t>
+  </si>
+  <si>
+    <t>Mutations - substitution rate</t>
   </si>
 </sst>
 </file>
@@ -2312,17 +2312,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4796A1-9A3D-4303-832B-A1FBABA24A2A}">
   <dimension ref="A1:BE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH17" workbookViewId="0">
-      <selection activeCell="AX24" sqref="AX24:AX42"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2656,197 +2656,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1595</v>
+        <v>1649</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D3">
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>567</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ3">
+        <v>2</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS3" t="s">
         <v>79</v>
       </c>
-      <c r="E3">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3">
-        <v>1.3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <v>225</v>
-      </c>
-      <c r="S3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO3">
-        <v>15.9</v>
-      </c>
-      <c r="AP3">
-        <v>26.4</v>
-      </c>
-      <c r="AQ3">
-        <v>225</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>69</v>
-      </c>
       <c r="AT3" t="s">
         <v>58</v>
       </c>
       <c r="AU3" s="25" t="s">
-        <v>564</v>
+        <v>58</v>
       </c>
       <c r="AV3">
-        <v>1981</v>
+        <v>1967</v>
       </c>
       <c r="AW3" t="s">
         <v>58</v>
       </c>
       <c r="AX3" s="25" t="s">
-        <v>563</v>
+        <v>58</v>
       </c>
       <c r="AY3">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="AZ3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="BA3" t="b">
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="BC3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1615</v>
+        <v>1649</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4">
-        <v>1.7</v>
+        <v>567</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.27E-4</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>58</v>
@@ -2857,11 +2857,11 @@
       <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
-        <v>58</v>
+      <c r="L4">
+        <v>2.2900000000000001E-4</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
         <v>58</v>
@@ -2872,11 +2872,11 @@
       <c r="P4" t="s">
         <v>58</v>
       </c>
-      <c r="Q4">
-        <v>29</v>
-      </c>
-      <c r="R4">
-        <v>1677</v>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>58</v>
       </c>
       <c r="S4" t="s">
         <v>58</v>
@@ -2936,28 +2936,28 @@
         <v>58</v>
       </c>
       <c r="AL4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AM4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="AN4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO4">
-        <v>5</v>
-      </c>
-      <c r="AP4">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>58</v>
       </c>
       <c r="AQ4">
-        <v>1677</v>
+        <v>2</v>
       </c>
       <c r="AR4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AS4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AT4" t="s">
         <v>58</v>
@@ -2965,8 +2965,8 @@
       <c r="AU4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AV4" t="s">
-        <v>58</v>
+      <c r="AV4">
+        <v>1967</v>
       </c>
       <c r="AW4" t="s">
         <v>58</v>
@@ -2974,23 +2974,23 @@
       <c r="AX4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AY4" t="s">
-        <v>58</v>
+      <c r="AY4">
+        <v>1980</v>
       </c>
       <c r="AZ4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="b">
         <v>0</v>
       </c>
       <c r="BB4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="BC4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -3001,16 +3001,16 @@
         <v>71</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>568</v>
       </c>
       <c r="G5" s="1">
-        <v>3.8000000000000002E-5</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
@@ -3025,10 +3025,10 @@
         <v>58</v>
       </c>
       <c r="L5">
-        <v>4.6900000000000002E-4</v>
+        <v>2.5700000000000001E-4</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
         <v>58</v>
@@ -3121,10 +3121,10 @@
         <v>2</v>
       </c>
       <c r="AR5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS5" t="s">
         <v>79</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>80</v>
       </c>
       <c r="AT5" t="s">
         <v>58</v>
@@ -3145,7 +3145,7 @@
         <v>1980</v>
       </c>
       <c r="AZ5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA5" t="b">
         <v>0</v>
@@ -3157,30 +3157,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1649</v>
+        <v>1595</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.27E-4</v>
+        <v>63</v>
+      </c>
+      <c r="G6">
+        <v>1.3</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
         <v>58</v>
@@ -3191,11 +3191,11 @@
       <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="L6">
-        <v>2.2900000000000001E-4</v>
+      <c r="L6" t="s">
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
         <v>58</v>
@@ -3206,11 +3206,11 @@
       <c r="P6" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" t="s">
-        <v>58</v>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>225</v>
       </c>
       <c r="S6" t="s">
         <v>58</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AC6" t="s">
         <v>58</v>
       </c>
       <c r="AD6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AE6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="b">
         <v>0</v>
@@ -3273,192 +3273,192 @@
         <v>58</v>
       </c>
       <c r="AM6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AN6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="AO6">
+        <v>15.9</v>
+      </c>
+      <c r="AP6">
+        <v>26.4</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="AR6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AS6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AT6" t="s">
         <v>58</v>
       </c>
       <c r="AU6" s="25" t="s">
-        <v>58</v>
+        <v>562</v>
       </c>
       <c r="AV6">
-        <v>1967</v>
+        <v>1981</v>
       </c>
       <c r="AW6" t="s">
         <v>58</v>
       </c>
       <c r="AX6" s="25" t="s">
-        <v>58</v>
+        <v>561</v>
       </c>
       <c r="AY6">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="AZ6" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="BA6" t="b">
         <v>0</v>
       </c>
       <c r="BB6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="BC6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1649</v>
+        <v>1615</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
       </c>
       <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7">
+        <v>1.7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7">
+        <v>29</v>
+      </c>
+      <c r="R7">
+        <v>1677</v>
+      </c>
+      <c r="S7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7">
+        <v>5</v>
+      </c>
+      <c r="AP7">
+        <v>70</v>
+      </c>
+      <c r="AQ7">
+        <v>1677</v>
+      </c>
+      <c r="AR7" t="s">
         <v>75</v>
       </c>
-      <c r="E7">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7">
-        <v>2.5700000000000001E-4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U7" t="s">
-        <v>58</v>
-      </c>
-      <c r="V7" t="s">
-        <v>58</v>
-      </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ7">
-        <v>2</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>79</v>
-      </c>
       <c r="AS7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AT7" t="s">
         <v>58</v>
@@ -3466,8 +3466,8 @@
       <c r="AU7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AV7">
-        <v>1967</v>
+      <c r="AV7" t="s">
+        <v>58</v>
       </c>
       <c r="AW7" t="s">
         <v>58</v>
@@ -3475,23 +3475,23 @@
       <c r="AX7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AY7">
-        <v>1980</v>
+      <c r="AY7" t="s">
+        <v>58</v>
       </c>
       <c r="AZ7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="BA7" t="b">
         <v>0</v>
       </c>
       <c r="BB7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="BC7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>1692</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="20">
         <v>2</v>
@@ -3508,7 +3508,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>58</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC8" s="20" t="s">
         <v>58</v>
@@ -3610,7 +3610,7 @@
         <v>67</v>
       </c>
       <c r="AN8" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AO8" s="20" t="s">
         <v>58</v>
@@ -3622,7 +3622,7 @@
         <v>58</v>
       </c>
       <c r="AR8" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS8" s="20" t="s">
         <v>58</v>
@@ -3660,7 +3660,7 @@
       <c r="BD8" s="20"/>
       <c r="BE8" s="20"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>1692</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="20">
         <v>3</v>
@@ -3677,7 +3677,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>58</v>
@@ -3743,55 +3743,55 @@
         <v>0</v>
       </c>
       <c r="AB9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR9" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="AC9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE9" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM9" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN9" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR9" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="AS9" s="20" t="s">
         <v>58</v>
@@ -3829,7 +3829,7 @@
       <c r="BD9" s="20"/>
       <c r="BE9" s="20"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>1692</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="20">
         <v>4</v>
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>58</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC10" s="20" t="s">
         <v>58</v>
@@ -3960,7 +3960,7 @@
         <v>58</v>
       </c>
       <c r="AR10" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS10" s="20" t="s">
         <v>58</v>
@@ -3998,7 +3998,7 @@
       <c r="BD10" s="20"/>
       <c r="BE10" s="20"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>1692</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="20">
         <v>6</v>
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>58</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC11" s="20" t="s">
         <v>58</v>
@@ -4114,7 +4114,7 @@
         <v>58</v>
       </c>
       <c r="AM11" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AN11" s="20" t="s">
         <v>65</v>
@@ -4129,7 +4129,7 @@
         <v>58</v>
       </c>
       <c r="AR11" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS11" s="20" t="s">
         <v>58</v>
@@ -4167,7 +4167,7 @@
       <c r="BD11" s="20"/>
       <c r="BE11" s="20"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1692</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20">
         <v>7</v>
@@ -4184,7 +4184,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>58</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC12" s="20" t="s">
         <v>58</v>
@@ -4283,7 +4283,7 @@
         <v>58</v>
       </c>
       <c r="AM12" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AN12" s="20" t="s">
         <v>65</v>
@@ -4298,7 +4298,7 @@
         <v>58</v>
       </c>
       <c r="AR12" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS12" s="20" t="s">
         <v>58</v>
@@ -4336,7 +4336,7 @@
       <c r="BD12" s="20"/>
       <c r="BE12" s="20"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>1692</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20">
         <v>8</v>
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>58</v>
@@ -4419,55 +4419,55 @@
         <v>0</v>
       </c>
       <c r="AB13" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM13" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR13" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="AC13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE13" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM13" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN13" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ13" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR13" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="AS13" s="20" t="s">
         <v>58</v>
@@ -4505,7 +4505,7 @@
       <c r="BD13" s="20"/>
       <c r="BE13" s="20"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>1927</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14">
         <v>87</v>
@@ -4522,7 +4522,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G14">
         <v>10.7</v>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="b">
         <v>1</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>1931</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15">
         <v>21</v>
@@ -4689,7 +4689,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15">
         <v>1.2</v>
@@ -4719,49 +4719,49 @@
         <v>2</v>
       </c>
       <c r="P15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15" t="s">
         <v>101</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>58</v>
-      </c>
-      <c r="R15" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" t="s">
-        <v>102</v>
-      </c>
-      <c r="T15" t="s">
-        <v>58</v>
-      </c>
-      <c r="U15" t="s">
-        <v>58</v>
-      </c>
-      <c r="V15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>103</v>
       </c>
       <c r="AE15" t="b">
         <v>1</v>
@@ -4803,7 +4803,7 @@
         <v>58</v>
       </c>
       <c r="AR15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AS15" t="s">
         <v>58</v>
@@ -4839,39 +4839,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="b">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>1931</v>
+        <v>1983</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G16">
-        <v>65</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="s">
         <v>64</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L16" t="s">
         <v>58</v>
@@ -4879,14 +4879,14 @@
       <c r="M16" t="s">
         <v>58</v>
       </c>
-      <c r="N16">
-        <v>32</v>
-      </c>
-      <c r="O16">
-        <v>88</v>
+      <c r="N16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="s">
         <v>58</v>
@@ -4895,7 +4895,7 @@
         <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
         <v>58</v>
@@ -4922,16 +4922,16 @@
         <v>0</v>
       </c>
       <c r="AB16" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="AC16" t="s">
         <v>58</v>
       </c>
       <c r="AD16" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="AE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="b">
         <v>0</v>
@@ -4958,40 +4958,40 @@
         <v>73</v>
       </c>
       <c r="AN16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="AO16">
+        <v>18</v>
+      </c>
+      <c r="AP16">
+        <v>65</v>
+      </c>
+      <c r="AQ16">
+        <v>809</v>
       </c>
       <c r="AR16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AS16" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="AT16" t="s">
         <v>58</v>
       </c>
       <c r="AU16" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>58</v>
+        <v>563</v>
+      </c>
+      <c r="AV16">
+        <v>2011</v>
       </c>
       <c r="AW16" t="s">
         <v>58</v>
       </c>
       <c r="AX16" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>58</v>
+        <v>565</v>
+      </c>
+      <c r="AY16">
+        <v>2011</v>
       </c>
       <c r="AZ16" t="s">
         <v>58</v>
@@ -5000,36 +5000,36 @@
         <v>0</v>
       </c>
       <c r="BB16" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="BC16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1931</v>
+        <v>2042</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G17">
-        <v>53.8</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
         <v>58</v>
@@ -5038,7 +5038,7 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s">
         <v>58</v>
@@ -5046,23 +5046,23 @@
       <c r="M17" t="s">
         <v>58</v>
       </c>
-      <c r="N17">
-        <v>26.5</v>
-      </c>
-      <c r="O17">
-        <v>80</v>
+      <c r="N17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
       </c>
       <c r="P17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>58</v>
-      </c>
-      <c r="R17" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>381</v>
       </c>
       <c r="S17" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
         <v>58</v>
@@ -5089,13 +5089,13 @@
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AC17" t="s">
         <v>58</v>
       </c>
       <c r="AD17" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AE17" t="b">
         <v>1</v>
@@ -5119,13 +5119,13 @@
         <v>58</v>
       </c>
       <c r="AL17" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AM17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="AN17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AO17" t="s">
         <v>58</v>
@@ -5133,14 +5133,14 @@
       <c r="AP17" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>58</v>
+      <c r="AQ17">
+        <v>381</v>
       </c>
       <c r="AR17" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AS17" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="AT17" t="s">
         <v>58</v>
@@ -5167,45 +5167,45 @@
         <v>0</v>
       </c>
       <c r="BB17" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="BC17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1983</v>
+        <v>1931</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>0.5</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
         <v>64</v>
       </c>
-      <c r="I18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" t="s">
-        <v>58</v>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L18" t="s">
         <v>58</v>
@@ -5213,14 +5213,14 @@
       <c r="M18" t="s">
         <v>58</v>
       </c>
-      <c r="N18" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" t="s">
-        <v>58</v>
+      <c r="N18">
+        <v>32</v>
+      </c>
+      <c r="O18">
+        <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="Q18" t="s">
         <v>58</v>
@@ -5229,7 +5229,7 @@
         <v>58</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="T18" t="s">
         <v>58</v>
@@ -5256,16 +5256,16 @@
         <v>0</v>
       </c>
       <c r="AB18" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="AC18" t="s">
         <v>58</v>
       </c>
       <c r="AD18" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AE18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="b">
         <v>0</v>
@@ -5292,40 +5292,40 @@
         <v>73</v>
       </c>
       <c r="AN18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO18">
-        <v>18</v>
-      </c>
-      <c r="AP18">
-        <v>65</v>
-      </c>
-      <c r="AQ18">
-        <v>809</v>
+        <v>74</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>58</v>
       </c>
       <c r="AR18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AS18" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="AT18" t="s">
         <v>58</v>
       </c>
       <c r="AU18" s="25" t="s">
-        <v>565</v>
-      </c>
-      <c r="AV18">
-        <v>2011</v>
+        <v>58</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>58</v>
       </c>
       <c r="AW18" t="s">
         <v>58</v>
       </c>
       <c r="AX18" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="AY18">
-        <v>2011</v>
+        <v>58</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>58</v>
       </c>
       <c r="AZ18" t="s">
         <v>58</v>
@@ -5334,33 +5334,33 @@
         <v>0</v>
       </c>
       <c r="BB18" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="BC18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="b">
         <v>1</v>
       </c>
       <c r="B19">
-        <v>2032</v>
+        <v>1931</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>53.8</v>
       </c>
       <c r="H19" t="s">
         <v>64</v>
@@ -5380,23 +5380,23 @@
       <c r="M19" t="s">
         <v>58</v>
       </c>
-      <c r="N19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" t="s">
-        <v>58</v>
+      <c r="N19">
+        <v>26.5</v>
+      </c>
+      <c r="O19">
+        <v>80</v>
       </c>
       <c r="P19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-      <c r="R19">
-        <v>14</v>
+        <v>99</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" t="s">
+        <v>58</v>
       </c>
       <c r="S19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="T19" t="s">
         <v>58</v>
@@ -5423,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="AB19" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="AC19" t="s">
         <v>58</v>
       </c>
       <c r="AD19" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="AE19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="b">
         <v>0</v>
@@ -5456,43 +5456,43 @@
         <v>72</v>
       </c>
       <c r="AM19" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="AN19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO19">
-        <v>1.3</v>
-      </c>
-      <c r="AP19">
-        <v>70</v>
-      </c>
-      <c r="AQ19">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>58</v>
       </c>
       <c r="AR19" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AS19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT19">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>58</v>
       </c>
       <c r="AU19" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="AV19">
-        <v>2012</v>
-      </c>
-      <c r="AW19">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>58</v>
       </c>
       <c r="AX19" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="AY19">
-        <v>2012</v>
+        <v>58</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>58</v>
       </c>
       <c r="AZ19" t="s">
         <v>58</v>
@@ -5501,36 +5501,36 @@
         <v>0</v>
       </c>
       <c r="BB19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BC19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="b">
         <v>1</v>
       </c>
       <c r="B20">
-        <v>2042</v>
+        <v>2032</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E20">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I20" t="s">
         <v>58</v>
@@ -5539,7 +5539,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L20" t="s">
         <v>58</v>
@@ -5557,13 +5557,13 @@
         <v>58</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>381</v>
+        <v>14</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="T20" t="s">
         <v>58</v>
@@ -5590,16 +5590,16 @@
         <v>0</v>
       </c>
       <c r="AB20" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AC20" t="s">
         <v>58</v>
       </c>
       <c r="AD20" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="AE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="b">
         <v>0</v>
@@ -5620,7 +5620,7 @@
         <v>58</v>
       </c>
       <c r="AL20" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AM20" t="s">
         <v>58</v>
@@ -5628,38 +5628,38 @@
       <c r="AN20" t="s">
         <v>58</v>
       </c>
-      <c r="AO20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>58</v>
+      <c r="AO20">
+        <v>1.3</v>
+      </c>
+      <c r="AP20">
+        <v>70</v>
       </c>
       <c r="AQ20">
-        <v>381</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="AS20" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>58</v>
+        <v>112</v>
+      </c>
+      <c r="AT20">
+        <v>3</v>
       </c>
       <c r="AU20" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>58</v>
+        <v>564</v>
+      </c>
+      <c r="AV20">
+        <v>2012</v>
+      </c>
+      <c r="AW20">
+        <v>13</v>
       </c>
       <c r="AX20" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>58</v>
+        <v>562</v>
+      </c>
+      <c r="AY20">
+        <v>2012</v>
       </c>
       <c r="AZ20" t="s">
         <v>58</v>
@@ -5668,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="BB20" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="BC20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="b">
         <v>1</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>1693</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="23">
         <v>11</v>
@@ -5691,19 +5691,19 @@
         <v>9</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>65</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Q21" s="23">
         <v>0</v>
@@ -5712,19 +5712,19 @@
         <v>331</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="T21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="V21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W21" s="23" t="b">
         <v>0</v>
       </c>
       <c r="Y21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Z21" s="23" t="b">
         <v>0</v>
@@ -5733,13 +5733,13 @@
         <v>0</v>
       </c>
       <c r="AB21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AC21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AD21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AE21" s="23" t="b">
         <v>0</v>
@@ -5748,99 +5748,102 @@
         <v>0</v>
       </c>
       <c r="AG21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AH21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AI21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AJ21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AK21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AL21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AM21" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AN21" s="24"/>
       <c r="AR21" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AS21" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AU21" s="25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AV21" s="24" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AW21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AX21" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AY21" s="24" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AZ21" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="BA21" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AU24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AU29" s="20"/>
       <c r="AX29" s="20"/>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AU30" s="20"/>
       <c r="AX30" s="20"/>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AU31" s="20"/>
       <c r="AX31" s="20"/>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AU32" s="20"/>
       <c r="AX32" s="20"/>
     </row>
-    <row r="33" spans="47:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="47:50" x14ac:dyDescent="0.25">
       <c r="AU33" s="20"/>
       <c r="AX33" s="20"/>
     </row>
-    <row r="34" spans="47:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="47:50" x14ac:dyDescent="0.25">
       <c r="AU34" s="20"/>
       <c r="AX34" s="20"/>
     </row>
-    <row r="39" spans="47:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="47:50" x14ac:dyDescent="0.25">
       <c r="AU39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" spans="47:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="47:50" x14ac:dyDescent="0.25">
       <c r="AU40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="42" spans="47:50" x14ac:dyDescent="0.3">
+    <row r="42" spans="47:50" x14ac:dyDescent="0.25">
       <c r="AU42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BC42">
+    <sortCondition ref="BB1:BB42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5854,12 +5857,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5870,72 +5873,72 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>121</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>123</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>124</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>125</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>126</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>127</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>129</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>132</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>133</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>134</v>
-      </c>
-      <c r="U1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V1" t="s">
-        <v>136</v>
       </c>
       <c r="W1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>1930</v>
@@ -5971,16 +5974,16 @@
         <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R2" t="s">
         <v>58</v>
@@ -6001,12 +6004,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>2032</v>
@@ -6042,16 +6045,16 @@
         <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P3">
         <v>9</v>
       </c>
       <c r="Q3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R3">
         <v>5</v>
@@ -6072,12 +6075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <v>1613</v>
@@ -6113,10 +6116,10 @@
         <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P4">
         <v>252</v>
@@ -6143,12 +6146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5">
         <v>1871</v>
@@ -6163,28 +6166,28 @@
         <v>2004</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K5" s="24">
         <v>2005</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P5" s="23">
         <v>252</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="T5" s="23" t="b">
         <v>0</v>
@@ -6196,12 +6199,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>1871</v>
@@ -6216,28 +6219,28 @@
         <v>1998</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K6" s="24">
         <v>2000</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P6" s="23">
         <v>154</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="T6" s="23" t="b">
         <v>0</v>
@@ -6262,93 +6265,93 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="132.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="108.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="132.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="108.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>149</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>150</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>152</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>154</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>155</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>156</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>157</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>158</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>159</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>163</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" t="s">
-        <v>166</v>
       </c>
       <c r="G2">
         <v>2016</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J2">
         <v>44</v>
@@ -6360,42 +6363,42 @@
         <v>27282469</v>
       </c>
       <c r="N2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O2">
         <v>1809</v>
       </c>
       <c r="P2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="R2" t="s">
+      <c r="C3" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="G3" s="6">
         <v>2015</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J3" s="6">
         <v>2</v>
@@ -6407,42 +6410,42 @@
         <v>26029377</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O3" s="6">
         <v>2816</v>
       </c>
       <c r="P3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="D4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>181</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>182</v>
-      </c>
-      <c r="E4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F4" t="s">
-        <v>184</v>
       </c>
       <c r="G4">
         <v>1986</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J4">
         <v>38</v>
@@ -6451,7 +6454,7 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M4">
         <v>3092415</v>
@@ -6460,36 +6463,36 @@
         <v>2272</v>
       </c>
       <c r="P4" t="s">
+        <v>185</v>
+      </c>
+      <c r="R4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="R4" t="s">
+      <c r="C5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>190</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>191</v>
-      </c>
-      <c r="E5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" t="s">
-        <v>193</v>
       </c>
       <c r="G5">
         <v>2006</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J5">
         <v>80</v>
@@ -6498,51 +6501,51 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M5">
         <v>16775337</v>
       </c>
       <c r="N5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O5">
         <v>1888</v>
       </c>
       <c r="P5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R5" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" t="s">
+    </row>
+    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="R5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="D6" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>201</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>202</v>
-      </c>
-      <c r="E6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" t="s">
-        <v>204</v>
       </c>
       <c r="G6">
         <v>1988</v>
       </c>
       <c r="I6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J6">
         <v>38</v>
@@ -6551,7 +6554,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M6">
         <v>3128130</v>
@@ -6560,36 +6563,36 @@
         <v>2166</v>
       </c>
       <c r="P6" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
         <v>207</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="D7" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>209</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" t="s">
-        <v>212</v>
       </c>
       <c r="G7">
         <v>1997</v>
       </c>
       <c r="I7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J7">
         <v>14</v>
@@ -6598,48 +6601,48 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M7">
         <v>9254917</v>
       </c>
       <c r="N7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O7">
         <v>1897</v>
       </c>
       <c r="P7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>215</v>
+      </c>
+      <c r="R7" t="s">
         <v>216</v>
       </c>
-      <c r="Q7" t="s">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="R7" t="s">
+      <c r="B8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="D8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>220</v>
-      </c>
-      <c r="D8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" t="s">
-        <v>222</v>
       </c>
       <c r="G8">
         <v>1982</v>
       </c>
       <c r="I8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -6648,7 +6651,7 @@
         <v>8276</v>
       </c>
       <c r="L8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M8">
         <v>6122054</v>
@@ -6657,86 +6660,86 @@
         <v>1962</v>
       </c>
       <c r="P8" t="s">
+        <v>223</v>
+      </c>
+      <c r="R8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="R8" t="s">
+      <c r="C9" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" t="s">
         <v>227</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>228</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>229</v>
-      </c>
-      <c r="E9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" t="s">
-        <v>231</v>
       </c>
       <c r="G9">
         <v>2018</v>
       </c>
       <c r="I9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J9">
         <v>218</v>
       </c>
       <c r="K9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M9">
         <v>29924324</v>
       </c>
       <c r="N9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O9">
         <v>2514</v>
       </c>
       <c r="P9" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
         <v>236</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="D10" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>238</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>239</v>
-      </c>
-      <c r="E10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" t="s">
-        <v>241</v>
       </c>
       <c r="G10">
         <v>2014</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -6748,42 +6751,42 @@
         <v>25495697</v>
       </c>
       <c r="N10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O10">
         <v>1868</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" t="s">
         <v>247</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>248</v>
-      </c>
-      <c r="E11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F11" t="s">
-        <v>250</v>
       </c>
       <c r="G11">
         <v>2016</v>
       </c>
       <c r="I11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -6798,42 +6801,42 @@
         <v>27716429</v>
       </c>
       <c r="N11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O11">
         <v>2423</v>
       </c>
       <c r="P11" t="s">
+        <v>251</v>
+      </c>
+      <c r="R11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" t="s">
         <v>253</v>
       </c>
-      <c r="R11" t="s">
+      <c r="D12" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>255</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>256</v>
-      </c>
-      <c r="E12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F12" t="s">
-        <v>258</v>
       </c>
       <c r="G12">
         <v>2017</v>
       </c>
       <c r="I12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J12">
         <v>23</v>
@@ -6842,51 +6845,51 @@
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M12">
         <v>28518032</v>
       </c>
       <c r="N12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O12">
         <v>1816</v>
       </c>
       <c r="P12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>261</v>
+      </c>
+      <c r="R12" t="s">
         <v>262</v>
       </c>
-      <c r="Q12" t="s">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="R12" t="s">
+      <c r="C13" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="D13" t="s">
         <v>265</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>266</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>267</v>
-      </c>
-      <c r="E13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F13" t="s">
-        <v>269</v>
       </c>
       <c r="G13">
         <v>2016</v>
       </c>
       <c r="I13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J13">
         <v>16</v>
@@ -6901,42 +6904,42 @@
         <v>27887599</v>
       </c>
       <c r="N13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O13">
         <v>1819</v>
       </c>
       <c r="P13" t="s">
+        <v>270</v>
+      </c>
+      <c r="R13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="R13" t="s">
+      <c r="B14" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="D14" t="s">
         <v>274</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>275</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>276</v>
-      </c>
-      <c r="E14" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" t="s">
-        <v>278</v>
       </c>
       <c r="G14">
         <v>2015</v>
       </c>
       <c r="I14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -6945,51 +6948,51 @@
         <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M14">
         <v>26047124</v>
       </c>
       <c r="N14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O14">
         <v>2332</v>
       </c>
       <c r="P14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>281</v>
+      </c>
+      <c r="R14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
         <v>282</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="D15" t="s">
         <v>283</v>
       </c>
-      <c r="R14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>284</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>285</v>
-      </c>
-      <c r="E15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F15" t="s">
-        <v>287</v>
       </c>
       <c r="G15">
         <v>2012</v>
       </c>
       <c r="I15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -6998,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M15">
         <v>23516123</v>
@@ -7007,36 +7010,36 @@
         <v>2068</v>
       </c>
       <c r="P15" t="s">
+        <v>288</v>
+      </c>
+      <c r="R15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="R15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="G16" s="6">
         <v>1989</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J16" s="6">
         <v>83</v>
@@ -7045,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M16" s="6">
         <v>2515626</v>
@@ -7054,33 +7057,33 @@
         <v>2136</v>
       </c>
       <c r="P16" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" t="s">
         <v>297</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>298</v>
-      </c>
-      <c r="D17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" t="s">
-        <v>300</v>
       </c>
       <c r="G17">
         <v>1968</v>
       </c>
       <c r="I17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J17">
         <v>13</v>
@@ -7089,7 +7092,7 @@
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M17">
         <v>4974179</v>
@@ -7098,36 +7101,36 @@
         <v>2135</v>
       </c>
       <c r="P17" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>302</v>
+      </c>
+      <c r="R17" t="s">
         <v>303</v>
       </c>
-      <c r="Q17" t="s">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
         <v>304</v>
       </c>
-      <c r="R17" t="s">
+      <c r="D18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>306</v>
-      </c>
-      <c r="D18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E18" t="s">
-        <v>308</v>
       </c>
       <c r="G18">
         <v>1973</v>
       </c>
       <c r="I18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J18">
         <v>49</v>
@@ -7136,7 +7139,7 @@
         <v>574</v>
       </c>
       <c r="L18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M18">
         <v>4207635</v>
@@ -7145,36 +7148,36 @@
         <v>1949</v>
       </c>
       <c r="P18" t="s">
+        <v>309</v>
+      </c>
+      <c r="R18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" t="s">
         <v>311</v>
       </c>
-      <c r="R18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>312</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>313</v>
-      </c>
-      <c r="E19" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" t="s">
-        <v>315</v>
       </c>
       <c r="G19">
         <v>1989</v>
       </c>
       <c r="I19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J19">
         <v>83</v>
@@ -7183,7 +7186,7 @@
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M19">
         <v>2559514</v>
@@ -7192,36 +7195,36 @@
         <v>2151</v>
       </c>
       <c r="P19" t="s">
+        <v>315</v>
+      </c>
+      <c r="R19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" t="s">
         <v>317</v>
       </c>
-      <c r="R19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>318</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>319</v>
-      </c>
-      <c r="E20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" t="s">
-        <v>321</v>
       </c>
       <c r="G20">
         <v>2010</v>
       </c>
       <c r="I20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J20">
         <v>201</v>
@@ -7230,98 +7233,98 @@
         <v>12</v>
       </c>
       <c r="L20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M20">
         <v>20441515</v>
       </c>
       <c r="N20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O20">
         <v>2054</v>
       </c>
       <c r="P20" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>323</v>
+      </c>
+      <c r="R20" t="s">
         <v>324</v>
       </c>
-      <c r="Q20" t="s">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>325</v>
       </c>
-      <c r="R20" t="s">
+      <c r="D21" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>327</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>328</v>
-      </c>
-      <c r="E21" t="s">
-        <v>329</v>
-      </c>
-      <c r="F21" t="s">
-        <v>330</v>
       </c>
       <c r="G21">
         <v>2015</v>
       </c>
       <c r="I21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M21">
         <v>26209681</v>
       </c>
       <c r="N21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O21">
         <v>1866</v>
       </c>
       <c r="P21" t="s">
+        <v>332</v>
+      </c>
+      <c r="R21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
         <v>334</v>
       </c>
-      <c r="R21" t="s">
+      <c r="D22" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>336</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>337</v>
-      </c>
-      <c r="E22" t="s">
-        <v>338</v>
-      </c>
-      <c r="F22" t="s">
-        <v>339</v>
       </c>
       <c r="G22">
         <v>2000</v>
       </c>
       <c r="I22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -7330,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M22">
         <v>10717539</v>
@@ -7339,36 +7342,36 @@
         <v>1959</v>
       </c>
       <c r="P22" t="s">
+        <v>340</v>
+      </c>
+      <c r="R22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" t="s">
         <v>342</v>
       </c>
-      <c r="R22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>343</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>344</v>
-      </c>
-      <c r="E23" t="s">
-        <v>345</v>
-      </c>
-      <c r="F23" t="s">
-        <v>346</v>
       </c>
       <c r="G23">
         <v>1989</v>
       </c>
       <c r="I23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J23">
         <v>140</v>
@@ -7377,7 +7380,7 @@
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M23">
         <v>2505350</v>
@@ -7386,33 +7389,33 @@
         <v>2092</v>
       </c>
       <c r="P23" t="s">
+        <v>347</v>
+      </c>
+      <c r="R23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" t="s">
         <v>349</v>
       </c>
-      <c r="R23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>350</v>
-      </c>
-      <c r="D24" t="s">
-        <v>351</v>
-      </c>
-      <c r="E24" t="s">
-        <v>352</v>
       </c>
       <c r="G24">
         <v>1977</v>
       </c>
       <c r="I24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J24">
         <v>48</v>
@@ -7430,39 +7433,39 @@
         <v>2716</v>
       </c>
       <c r="P24" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>353</v>
+      </c>
+      <c r="R24" t="s">
         <v>354</v>
       </c>
-      <c r="Q24" t="s">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>355</v>
       </c>
-      <c r="R24" t="s">
+      <c r="D25" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>357</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>358</v>
-      </c>
-      <c r="E25" t="s">
-        <v>359</v>
-      </c>
-      <c r="F25" t="s">
-        <v>360</v>
       </c>
       <c r="G25">
         <v>2016</v>
       </c>
       <c r="I25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J25">
         <v>8</v>
@@ -7477,45 +7480,45 @@
         <v>27043611</v>
       </c>
       <c r="N25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O25">
         <v>1881</v>
       </c>
       <c r="P25" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>362</v>
+      </c>
+      <c r="R25" t="s">
         <v>363</v>
       </c>
-      <c r="Q25" t="s">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>364</v>
       </c>
-      <c r="R25" t="s">
+      <c r="D26" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>366</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>367</v>
-      </c>
-      <c r="E26" t="s">
-        <v>368</v>
-      </c>
-      <c r="F26" t="s">
-        <v>369</v>
       </c>
       <c r="G26">
         <v>1978</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J26">
         <v>27</v>
@@ -7524,7 +7527,7 @@
         <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M26">
         <v>569445</v>
@@ -7533,39 +7536,39 @@
         <v>2308</v>
       </c>
       <c r="P26" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>370</v>
+      </c>
+      <c r="R26" t="s">
         <v>371</v>
       </c>
-      <c r="Q26" t="s">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>372</v>
       </c>
-      <c r="R26" t="s">
+      <c r="D27" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>374</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>375</v>
-      </c>
-      <c r="E27" t="s">
-        <v>376</v>
-      </c>
-      <c r="F27" t="s">
-        <v>377</v>
       </c>
       <c r="G27">
         <v>1993</v>
       </c>
       <c r="I27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J27">
         <v>87</v>
@@ -7574,7 +7577,7 @@
         <v>5</v>
       </c>
       <c r="L27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M27">
         <v>8266402</v>
@@ -7583,39 +7586,39 @@
         <v>2485</v>
       </c>
       <c r="P27" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>378</v>
+      </c>
+      <c r="R27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
         <v>379</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="D28" t="s">
         <v>380</v>
       </c>
-      <c r="R27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>374</v>
+      </c>
+      <c r="F28" t="s">
         <v>381</v>
-      </c>
-      <c r="D28" t="s">
-        <v>382</v>
-      </c>
-      <c r="E28" t="s">
-        <v>376</v>
-      </c>
-      <c r="F28" t="s">
-        <v>383</v>
       </c>
       <c r="G28">
         <v>1993</v>
       </c>
       <c r="I28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J28">
         <v>87</v>
@@ -7624,7 +7627,7 @@
         <v>5</v>
       </c>
       <c r="L28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M28">
         <v>8266403</v>
@@ -7633,39 +7636,39 @@
         <v>2280</v>
       </c>
       <c r="P28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q28" t="s">
+        <v>383</v>
+      </c>
+      <c r="R28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
         <v>385</v>
       </c>
-      <c r="R28" t="s">
+      <c r="D29" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>387</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>388</v>
-      </c>
-      <c r="E29" t="s">
-        <v>389</v>
-      </c>
-      <c r="F29" t="s">
-        <v>390</v>
       </c>
       <c r="G29">
         <v>1983</v>
       </c>
       <c r="I29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J29">
         <v>35</v>
@@ -7674,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M29">
         <v>6684336</v>
@@ -7683,39 +7686,39 @@
         <v>2310</v>
       </c>
       <c r="P29" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>391</v>
+      </c>
+      <c r="R29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
         <v>392</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="D30" t="s">
         <v>393</v>
       </c>
-      <c r="R29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>394</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>395</v>
-      </c>
-      <c r="E30" t="s">
-        <v>396</v>
-      </c>
-      <c r="F30" t="s">
-        <v>397</v>
       </c>
       <c r="G30">
         <v>1983</v>
       </c>
       <c r="I30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J30">
         <v>77</v>
@@ -7724,7 +7727,7 @@
         <v>5</v>
       </c>
       <c r="L30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M30">
         <v>6419422</v>
@@ -7733,36 +7736,36 @@
         <v>2163</v>
       </c>
       <c r="P30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E31" t="s">
         <v>399</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>400</v>
-      </c>
-      <c r="E31" t="s">
-        <v>401</v>
-      </c>
-      <c r="F31" t="s">
-        <v>402</v>
       </c>
       <c r="G31">
         <v>1982</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J31">
         <v>76</v>
@@ -7771,7 +7774,7 @@
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M31">
         <v>6810518</v>
@@ -7780,39 +7783,39 @@
         <v>2030</v>
       </c>
       <c r="P31" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>403</v>
+      </c>
+      <c r="R31" t="s">
         <v>404</v>
       </c>
-      <c r="Q31" t="s">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
         <v>405</v>
       </c>
-      <c r="R31" t="s">
+      <c r="D32" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>407</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>408</v>
-      </c>
-      <c r="E32" t="s">
-        <v>409</v>
-      </c>
-      <c r="F32" t="s">
-        <v>410</v>
       </c>
       <c r="G32">
         <v>1982</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J32">
         <v>76</v>
@@ -7821,7 +7824,7 @@
         <v>6</v>
       </c>
       <c r="L32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M32">
         <v>7164137</v>
@@ -7830,39 +7833,39 @@
         <v>2053</v>
       </c>
       <c r="P32" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>411</v>
+      </c>
+      <c r="R32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
         <v>412</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="D33" t="s">
         <v>413</v>
       </c>
-      <c r="R32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>414</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>415</v>
-      </c>
-      <c r="E33" t="s">
-        <v>416</v>
-      </c>
-      <c r="F33" t="s">
-        <v>417</v>
       </c>
       <c r="G33">
         <v>2013</v>
       </c>
       <c r="I33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J33">
         <v>87</v>
@@ -7871,51 +7874,51 @@
         <v>5</v>
       </c>
       <c r="L33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M33">
         <v>23255795</v>
       </c>
       <c r="N33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O33">
         <v>2034</v>
       </c>
       <c r="P33" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>419</v>
+      </c>
+      <c r="R33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="D34" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="R33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="F34" s="17" t="s">
         <v>423</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>425</v>
       </c>
       <c r="G34" s="17">
         <v>2016</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J34" s="17">
         <v>45</v>
@@ -7924,51 +7927,51 @@
         <v>1</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M34" s="17">
         <v>26589246</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="O34" s="17">
         <v>1822</v>
       </c>
       <c r="P34" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="R34" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="Q34" s="17" t="s">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
         <v>430</v>
       </c>
-      <c r="R34" s="17" t="s">
+      <c r="D35" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>432</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>433</v>
-      </c>
-      <c r="E35" t="s">
-        <v>434</v>
-      </c>
-      <c r="F35" t="s">
-        <v>435</v>
       </c>
       <c r="G35">
         <v>2002</v>
       </c>
       <c r="I35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J35">
         <v>7</v>
@@ -7977,7 +7980,7 @@
         <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M35">
         <v>12358627</v>
@@ -7986,33 +7989,33 @@
         <v>2084</v>
       </c>
       <c r="P35" t="s">
+        <v>436</v>
+      </c>
+      <c r="R35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" t="s">
         <v>438</v>
       </c>
-      <c r="R35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>439</v>
-      </c>
-      <c r="D36" t="s">
-        <v>440</v>
-      </c>
-      <c r="E36" t="s">
-        <v>441</v>
       </c>
       <c r="G36">
         <v>2005</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J36">
         <v>11</v>
@@ -8021,48 +8024,48 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M36">
         <v>15714665</v>
       </c>
       <c r="N36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O36">
         <v>1995</v>
       </c>
       <c r="P36" t="s">
+        <v>442</v>
+      </c>
+      <c r="R36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" t="s">
         <v>444</v>
       </c>
-      <c r="R36" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>445</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>446</v>
-      </c>
-      <c r="E37" t="s">
-        <v>447</v>
-      </c>
-      <c r="F37" t="s">
-        <v>448</v>
       </c>
       <c r="G37">
         <v>2006</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J37">
         <v>12</v>
@@ -8071,51 +8074,51 @@
         <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M37">
         <v>16704781</v>
       </c>
       <c r="N37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O37">
         <v>2551</v>
       </c>
       <c r="P37" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>450</v>
+      </c>
+      <c r="R37" t="s">
         <v>451</v>
       </c>
-      <c r="Q37" t="s">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
         <v>452</v>
       </c>
-      <c r="R37" t="s">
+      <c r="D38" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>454</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>455</v>
-      </c>
-      <c r="E38" t="s">
-        <v>456</v>
-      </c>
-      <c r="F38" t="s">
-        <v>457</v>
       </c>
       <c r="G38">
         <v>2013</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J38">
         <v>7</v>
@@ -8124,51 +8127,51 @@
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M38">
         <v>24069490</v>
       </c>
       <c r="N38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O38">
         <v>2913</v>
       </c>
       <c r="P38" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>459</v>
+      </c>
+      <c r="R38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
         <v>460</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="D39" t="s">
         <v>461</v>
       </c>
-      <c r="R38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>462</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>463</v>
-      </c>
-      <c r="E39" t="s">
-        <v>464</v>
-      </c>
-      <c r="F39" t="s">
-        <v>465</v>
       </c>
       <c r="G39">
         <v>1992</v>
       </c>
       <c r="I39" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J39">
         <v>181</v>
@@ -8177,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M39">
         <v>1579085</v>
@@ -8186,36 +8189,36 @@
         <v>2350</v>
       </c>
       <c r="P39" t="s">
+        <v>466</v>
+      </c>
+      <c r="R39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>467</v>
+      </c>
+      <c r="D40" t="s">
         <v>468</v>
       </c>
-      <c r="R39" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>469</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>470</v>
-      </c>
-      <c r="E40" t="s">
-        <v>471</v>
-      </c>
-      <c r="F40" t="s">
-        <v>472</v>
       </c>
       <c r="G40">
         <v>2006</v>
       </c>
       <c r="I40" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J40">
         <v>355</v>
@@ -8224,48 +8227,48 @@
         <v>9</v>
       </c>
       <c r="L40" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M40">
         <v>16943403</v>
       </c>
       <c r="N40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O40">
         <v>2022</v>
       </c>
       <c r="P40" t="s">
+        <v>474</v>
+      </c>
+      <c r="R40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
         <v>476</v>
       </c>
-      <c r="R40" t="s">
+      <c r="D41" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>478</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>479</v>
-      </c>
-      <c r="E41" t="s">
-        <v>480</v>
-      </c>
-      <c r="F41" t="s">
-        <v>481</v>
       </c>
       <c r="G41">
         <v>2003</v>
       </c>
       <c r="I41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J41">
         <v>9</v>
@@ -8274,48 +8277,48 @@
         <v>12</v>
       </c>
       <c r="L41" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M41">
         <v>14720391</v>
       </c>
       <c r="N41" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O41">
         <v>2024</v>
       </c>
       <c r="P41" t="s">
+        <v>482</v>
+      </c>
+      <c r="R41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>483</v>
+      </c>
+      <c r="D42" t="s">
         <v>484</v>
       </c>
-      <c r="R41" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>485</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>486</v>
-      </c>
-      <c r="E42" t="s">
-        <v>487</v>
-      </c>
-      <c r="F42" t="s">
-        <v>488</v>
       </c>
       <c r="G42">
         <v>2012</v>
       </c>
       <c r="I42" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J42">
         <v>8</v>
@@ -8324,51 +8327,51 @@
         <v>10</v>
       </c>
       <c r="L42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M42">
         <v>23055920</v>
       </c>
       <c r="N42" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O42">
         <v>1978</v>
       </c>
       <c r="P42" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>491</v>
+      </c>
+      <c r="R42" t="s">
         <v>492</v>
       </c>
-      <c r="Q42" t="s">
+    </row>
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
         <v>493</v>
       </c>
-      <c r="R42" t="s">
+      <c r="D43" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>495</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>496</v>
-      </c>
-      <c r="E43" t="s">
-        <v>497</v>
-      </c>
-      <c r="F43" t="s">
-        <v>498</v>
       </c>
       <c r="G43">
         <v>2013</v>
       </c>
       <c r="I43" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J43">
         <v>442</v>
@@ -8377,51 +8380,51 @@
         <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M43">
         <v>23711383</v>
       </c>
       <c r="N43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O43">
         <v>2458</v>
       </c>
       <c r="P43" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="R43" t="s">
         <v>502</v>
       </c>
-      <c r="Q43" s="10" t="s">
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
         <v>503</v>
       </c>
-      <c r="R43" t="s">
+      <c r="D44" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>505</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>506</v>
-      </c>
-      <c r="E44" t="s">
-        <v>507</v>
-      </c>
-      <c r="F44" t="s">
-        <v>508</v>
       </c>
       <c r="G44">
         <v>2012</v>
       </c>
       <c r="I44" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J44">
         <v>7</v>
@@ -8430,51 +8433,51 @@
         <v>12</v>
       </c>
       <c r="L44" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M44">
         <v>23251407</v>
       </c>
       <c r="N44" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="O44">
         <v>2364</v>
       </c>
       <c r="P44" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>511</v>
+      </c>
+      <c r="R44" t="s">
         <v>512</v>
       </c>
-      <c r="Q44" t="s">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
         <v>513</v>
       </c>
-      <c r="R44" t="s">
+      <c r="D45" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>515</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>516</v>
-      </c>
-      <c r="E45" t="s">
-        <v>517</v>
-      </c>
-      <c r="F45" t="s">
-        <v>518</v>
       </c>
       <c r="G45">
         <v>2014</v>
       </c>
       <c r="I45" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J45">
         <v>20</v>
@@ -8483,45 +8486,45 @@
         <v>7</v>
       </c>
       <c r="L45" t="s">
+        <v>518</v>
+      </c>
+      <c r="M45" t="s">
+        <v>519</v>
+      </c>
+      <c r="N45" t="s">
         <v>520</v>
-      </c>
-      <c r="M45" t="s">
-        <v>521</v>
-      </c>
-      <c r="N45" t="s">
-        <v>522</v>
       </c>
       <c r="O45">
         <v>616</v>
       </c>
       <c r="P45" t="s">
+        <v>521</v>
+      </c>
+      <c r="R45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>522</v>
+      </c>
+      <c r="D46" t="s">
         <v>523</v>
       </c>
-      <c r="R45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>524</v>
-      </c>
-      <c r="D46" t="s">
-        <v>525</v>
-      </c>
-      <c r="E46" t="s">
-        <v>526</v>
       </c>
       <c r="G46">
         <v>1975</v>
       </c>
       <c r="I46" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -8530,48 +8533,48 @@
         <v>5995</v>
       </c>
       <c r="L46" t="s">
+        <v>526</v>
+      </c>
+      <c r="M46" t="s">
+        <v>527</v>
+      </c>
+      <c r="N46" t="s">
         <v>528</v>
-      </c>
-      <c r="M46" t="s">
-        <v>529</v>
-      </c>
-      <c r="N46" t="s">
-        <v>530</v>
       </c>
       <c r="O46">
         <v>1725</v>
       </c>
       <c r="P46" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>530</v>
+      </c>
+      <c r="R46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
         <v>531</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="D47" t="s">
         <v>532</v>
       </c>
-      <c r="R46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>533</v>
-      </c>
-      <c r="D47" t="s">
-        <v>534</v>
-      </c>
-      <c r="E47" t="s">
-        <v>535</v>
       </c>
       <c r="G47">
         <v>1987</v>
       </c>
       <c r="I47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J47">
         <v>81</v>
@@ -8580,125 +8583,125 @@
         <v>4</v>
       </c>
       <c r="L47" t="s">
+        <v>534</v>
+      </c>
+      <c r="M47" t="s">
+        <v>535</v>
+      </c>
+      <c r="N47" t="s">
         <v>536</v>
-      </c>
-      <c r="M47" t="s">
-        <v>537</v>
-      </c>
-      <c r="N47" t="s">
-        <v>538</v>
       </c>
       <c r="O47">
         <v>1581</v>
       </c>
       <c r="P47" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>538</v>
+      </c>
+      <c r="R47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
         <v>539</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="D48" t="s">
         <v>540</v>
       </c>
-      <c r="R47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>541</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>542</v>
-      </c>
-      <c r="E48" t="s">
-        <v>543</v>
-      </c>
-      <c r="F48" t="s">
-        <v>544</v>
       </c>
       <c r="G48">
         <v>2007</v>
       </c>
       <c r="I48" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J48">
         <v>196</v>
       </c>
       <c r="L48" t="s">
+        <v>544</v>
+      </c>
+      <c r="M48" t="s">
+        <v>545</v>
+      </c>
+      <c r="N48" t="s">
         <v>546</v>
-      </c>
-      <c r="M48" t="s">
-        <v>547</v>
-      </c>
-      <c r="N48" t="s">
-        <v>548</v>
       </c>
       <c r="O48">
         <v>1015</v>
       </c>
       <c r="P48" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>548</v>
+      </c>
+      <c r="R48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
         <v>549</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="D49" t="s">
         <v>550</v>
       </c>
-      <c r="R48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>551</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>552</v>
-      </c>
-      <c r="E49" t="s">
-        <v>553</v>
-      </c>
-      <c r="F49" t="s">
-        <v>554</v>
       </c>
       <c r="G49">
         <v>2011</v>
       </c>
       <c r="I49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J49">
         <v>204</v>
       </c>
       <c r="L49" t="s">
+        <v>553</v>
+      </c>
+      <c r="M49" t="s">
+        <v>554</v>
+      </c>
+      <c r="N49" t="s">
         <v>555</v>
-      </c>
-      <c r="M49" t="s">
-        <v>556</v>
-      </c>
-      <c r="N49" t="s">
-        <v>557</v>
       </c>
       <c r="O49">
         <v>787</v>
       </c>
       <c r="P49" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>557</v>
+      </c>
+      <c r="R49" t="s">
         <v>558</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>559</v>
-      </c>
-      <c r="R49" t="s">
-        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/data/marburg/fixed/marburg_fixing.xlsx
+++ b/data/marburg/fixed/marburg_fixing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gc4018\Documents\code\priority-pathogens\data\marburg\fixed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B669476-BC3A-41FD-A1C8-083780ECC40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E1C7E5-CDC0-4820-B30E-5261DBDAAB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABF3DFDB-71ED-41C9-97C7-A2F6B992A437}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ABF3DFDB-71ED-41C9-97C7-A2F6B992A437}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -2312,17 +2312,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4796A1-9A3D-4303-832B-A1FBABA24A2A}">
   <dimension ref="A1:BE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="BD8" s="20"/>
       <c r="BE8" s="20"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="BD9" s="20"/>
       <c r="BE9" s="20"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="BD10" s="20"/>
       <c r="BE10" s="20"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="BD11" s="20"/>
       <c r="BE11" s="20"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="BD12" s="20"/>
       <c r="BE12" s="20"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="BD13" s="20"/>
       <c r="BE13" s="20"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" t="b">
         <v>1</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" t="b">
         <v>1</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" t="b">
         <v>1</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" t="b">
         <v>1</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" t="b">
         <v>1</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="b">
         <v>1</v>
       </c>
@@ -5800,43 +5800,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AU24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AU29" s="20"/>
       <c r="AX29" s="20"/>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AU30" s="20"/>
       <c r="AX30" s="20"/>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AU31" s="20"/>
       <c r="AX31" s="20"/>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="AU32" s="20"/>
       <c r="AX32" s="20"/>
     </row>
-    <row r="33" spans="47:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="47:50" x14ac:dyDescent="0.3">
       <c r="AU33" s="20"/>
       <c r="AX33" s="20"/>
     </row>
-    <row r="34" spans="47:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="47:50" x14ac:dyDescent="0.3">
       <c r="AU34" s="20"/>
       <c r="AX34" s="20"/>
     </row>
-    <row r="39" spans="47:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="47:50" x14ac:dyDescent="0.3">
       <c r="AU39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" spans="47:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="47:50" x14ac:dyDescent="0.3">
       <c r="AU40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="42" spans="47:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="47:50" x14ac:dyDescent="0.3">
       <c r="AU42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
@@ -5853,16 +5853,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F8FA9-4BD4-4210-82A6-1235256D3A71}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="23">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H5" s="24">
         <v>2004</v>
@@ -6199,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -6265,14 +6265,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="132.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="108.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="132.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="108.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>160</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>178</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>178</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>198</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>198</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>217</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>217</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>97</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>97</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>98</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>98</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>272</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>272</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>160</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>160</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>160</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>198</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>160</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>169</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>169</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>111</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>178</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>178</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>178</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>187</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>187</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>187</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>198</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>198</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>198</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>263</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>272</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>160</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>217</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>217</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>217</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>97</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>97</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>160</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>98</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>98</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>98</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>263</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>263</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>272</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>272</v>
       </c>
